--- a/src/Input_Files/duchy_names/iberia_duchies.xlsx
+++ b/src/Input_Files/duchy_names/iberia_duchies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python Scripts\imperator\ProvinceOrganizer\EP_ImperatorProvinceOrganizer\src\Input_Files\duchy_names\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CA7E24-8B25-4F84-A6AA-95C3F66DF9D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0E4FDC-9668-4BF1-8F69-DBE8F0458331}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-135" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="duchies" sheetId="1" r:id="rId1"/>
@@ -20,267 +20,285 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="95">
+  <si>
+    <t>RGB</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>owner_id</t>
+  </si>
+  <si>
+    <t>(184, 135, 3)</t>
+  </si>
+  <si>
+    <t>galicia</t>
+  </si>
+  <si>
+    <t>Galicia</t>
+  </si>
+  <si>
+    <t>CKU_sarmiento_1407_d</t>
+  </si>
+  <si>
+    <t>(145, 114, 53)</t>
+  </si>
+  <si>
+    <t>asturias</t>
+  </si>
+  <si>
+    <t>Asturias</t>
+  </si>
+  <si>
+    <t>CKU_trastamara_1425_e</t>
+  </si>
+  <si>
+    <t>(182, 90, 16)</t>
+  </si>
+  <si>
+    <t>burgos</t>
+  </si>
+  <si>
+    <t>Burgos</t>
+  </si>
+  <si>
+    <t>CKU_sandoval_1385_d</t>
+  </si>
+  <si>
+    <t>(202, 120, 39)</t>
+  </si>
+  <si>
+    <t>vizcaya</t>
+  </si>
+  <si>
+    <t>Vizcaya</t>
+  </si>
+  <si>
+    <t>(155, 48, 0)</t>
+  </si>
+  <si>
+    <t>navarra</t>
+  </si>
+  <si>
+    <t>Navarra</t>
+  </si>
+  <si>
+    <t>(224, 143, 22)</t>
+  </si>
+  <si>
+    <t>leon</t>
+  </si>
+  <si>
+    <t>León</t>
+  </si>
+  <si>
+    <t>CKU_manrique_1409_d</t>
+  </si>
+  <si>
+    <t>(177, 140, 58)</t>
+  </si>
+  <si>
+    <t>campos</t>
+  </si>
+  <si>
+    <t>Campos</t>
+  </si>
+  <si>
+    <t>(206, 148, 49)</t>
+  </si>
+  <si>
+    <t>soria</t>
+  </si>
+  <si>
+    <t>Soria</t>
+  </si>
+  <si>
+    <t>(120, 83, 29)</t>
+  </si>
+  <si>
+    <t>segovia</t>
+  </si>
+  <si>
+    <t>Segovia</t>
+  </si>
+  <si>
+    <t>(189, 105, 18)</t>
+  </si>
+  <si>
+    <t>salamanca</t>
+  </si>
+  <si>
+    <t>Salamanca</t>
+  </si>
+  <si>
+    <t>(186, 151, 24)</t>
+  </si>
+  <si>
+    <t>toledo</t>
+  </si>
+  <si>
+    <t>Toledo</t>
+  </si>
+  <si>
+    <t>(137, 105, 9)</t>
+  </si>
+  <si>
+    <t>cuenca</t>
+  </si>
+  <si>
+    <t>Cuenca</t>
+  </si>
+  <si>
+    <t>(166, 123, 20)</t>
+  </si>
+  <si>
+    <t>la_mancha</t>
+  </si>
+  <si>
+    <t>La Mancha</t>
+  </si>
+  <si>
+    <t>(103, 89, 18)</t>
+  </si>
+  <si>
+    <t>extremadura</t>
+  </si>
+  <si>
+    <t>Extremadura</t>
+  </si>
+  <si>
+    <t>(215, 153, 36)</t>
+  </si>
+  <si>
+    <t>murcia</t>
+  </si>
+  <si>
+    <t>Murcia</t>
+  </si>
+  <si>
+    <t>CKU_quesada_1410_m</t>
+  </si>
+  <si>
+    <t>(50, 101, 45)</t>
+  </si>
+  <si>
+    <t>sevilla</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>CKU_ribera_1420_p</t>
+  </si>
+  <si>
+    <t>(79, 158, 71)</t>
+  </si>
+  <si>
+    <t>cordoba</t>
+  </si>
+  <si>
+    <t>Córdoba</t>
+  </si>
+  <si>
+    <t>(54, 135, 45)</t>
+  </si>
+  <si>
+    <t>jaen</t>
+  </si>
+  <si>
+    <t>Jaén</t>
+  </si>
+  <si>
+    <t>(68, 137, 78)</t>
+  </si>
+  <si>
+    <t>granada</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>(215, 85, 9)</t>
+  </si>
+  <si>
+    <t>aragon</t>
+  </si>
+  <si>
+    <t>Aragón</t>
+  </si>
+  <si>
+    <t>(238, 205, 36)</t>
+  </si>
+  <si>
+    <t>catalunya</t>
+  </si>
+  <si>
+    <t>Cataluña</t>
+  </si>
+  <si>
+    <t>(247, 111, 0)</t>
+  </si>
+  <si>
+    <t>valencia</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>(237, 236, 97)</t>
+  </si>
+  <si>
+    <t>mallorca</t>
+  </si>
+  <si>
+    <t>Mallorca</t>
+  </si>
+  <si>
+    <t>(141, 183, 17)</t>
+  </si>
+  <si>
+    <t>douro_e_minho</t>
+  </si>
+  <si>
+    <t>Douro e Minho</t>
+  </si>
+  <si>
+    <t>(149, 211, 16)</t>
+  </si>
+  <si>
+    <t>beira</t>
+  </si>
+  <si>
+    <t>Beira</t>
+  </si>
+  <si>
+    <t>(83, 142, 15)</t>
+  </si>
+  <si>
+    <t>ribatejo</t>
+  </si>
+  <si>
+    <t>Ribatejo</t>
+  </si>
+  <si>
+    <t>(121, 145, 33)</t>
+  </si>
+  <si>
+    <t>alentejo</t>
+  </si>
+  <si>
+    <t>Alentejo</t>
+  </si>
+  <si>
+    <t>(145, 188, 43)</t>
+  </si>
+  <si>
+    <t>algarve</t>
+  </si>
   <si>
     <t>Algarve</t>
-  </si>
-  <si>
-    <t>algarve</t>
-  </si>
-  <si>
-    <t>(145, 188, 43)</t>
-  </si>
-  <si>
-    <t>Alentejo</t>
-  </si>
-  <si>
-    <t>alentejo</t>
-  </si>
-  <si>
-    <t>(121, 145, 33)</t>
-  </si>
-  <si>
-    <t>Ribatejo</t>
-  </si>
-  <si>
-    <t>ribatejo</t>
-  </si>
-  <si>
-    <t>(83, 142, 15)</t>
-  </si>
-  <si>
-    <t>Beira</t>
-  </si>
-  <si>
-    <t>beira</t>
-  </si>
-  <si>
-    <t>(149, 211, 16)</t>
-  </si>
-  <si>
-    <t>Douro e Minho</t>
-  </si>
-  <si>
-    <t>douro_e_minho</t>
-  </si>
-  <si>
-    <t>(141, 183, 17)</t>
-  </si>
-  <si>
-    <t>Mallorca</t>
-  </si>
-  <si>
-    <t>mallorca</t>
-  </si>
-  <si>
-    <t>(237, 236, 97)</t>
-  </si>
-  <si>
-    <t>Valencia</t>
-  </si>
-  <si>
-    <t>valencia</t>
-  </si>
-  <si>
-    <t>(247, 111, 0)</t>
-  </si>
-  <si>
-    <t>Cataluña</t>
-  </si>
-  <si>
-    <t>catalunya</t>
-  </si>
-  <si>
-    <t>(238, 205, 36)</t>
-  </si>
-  <si>
-    <t>Aragón</t>
-  </si>
-  <si>
-    <t>aragon</t>
-  </si>
-  <si>
-    <t>(215, 85, 9)</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>granada</t>
-  </si>
-  <si>
-    <t>(68, 137, 78)</t>
-  </si>
-  <si>
-    <t>Jaén</t>
-  </si>
-  <si>
-    <t>jaen</t>
-  </si>
-  <si>
-    <t>(54, 135, 45)</t>
-  </si>
-  <si>
-    <t>Córdoba</t>
-  </si>
-  <si>
-    <t>cordoba</t>
-  </si>
-  <si>
-    <t>(79, 158, 71)</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>sevilla</t>
-  </si>
-  <si>
-    <t>(50, 101, 45)</t>
-  </si>
-  <si>
-    <t>Murcia</t>
-  </si>
-  <si>
-    <t>murcia</t>
-  </si>
-  <si>
-    <t>(215, 153, 36)</t>
-  </si>
-  <si>
-    <t>Extremadura</t>
-  </si>
-  <si>
-    <t>extremadura</t>
-  </si>
-  <si>
-    <t>(103, 89, 18)</t>
-  </si>
-  <si>
-    <t>La Mancha</t>
-  </si>
-  <si>
-    <t>la_mancha</t>
-  </si>
-  <si>
-    <t>(166, 123, 20)</t>
-  </si>
-  <si>
-    <t>Cuenca</t>
-  </si>
-  <si>
-    <t>cuenca</t>
-  </si>
-  <si>
-    <t>(137, 105, 9)</t>
-  </si>
-  <si>
-    <t>Toledo</t>
-  </si>
-  <si>
-    <t>toledo</t>
-  </si>
-  <si>
-    <t>(186, 151, 24)</t>
-  </si>
-  <si>
-    <t>Salamanca</t>
-  </si>
-  <si>
-    <t>salamanca</t>
-  </si>
-  <si>
-    <t>(189, 105, 18)</t>
-  </si>
-  <si>
-    <t>Segovia</t>
-  </si>
-  <si>
-    <t>segovia</t>
-  </si>
-  <si>
-    <t>(120, 83, 29)</t>
-  </si>
-  <si>
-    <t>Soria</t>
-  </si>
-  <si>
-    <t>soria</t>
-  </si>
-  <si>
-    <t>(206, 148, 49)</t>
-  </si>
-  <si>
-    <t>Valladolid</t>
-  </si>
-  <si>
-    <t>valladolid</t>
-  </si>
-  <si>
-    <t>(177, 140, 58)</t>
-  </si>
-  <si>
-    <t>León</t>
-  </si>
-  <si>
-    <t>leon</t>
-  </si>
-  <si>
-    <t>(224, 143, 22)</t>
-  </si>
-  <si>
-    <t>Navarra</t>
-  </si>
-  <si>
-    <t>navarra</t>
-  </si>
-  <si>
-    <t>(216, 0, 93)</t>
-  </si>
-  <si>
-    <t>Vizcaya</t>
-  </si>
-  <si>
-    <t>vizcaya</t>
-  </si>
-  <si>
-    <t>(202, 120, 39)</t>
-  </si>
-  <si>
-    <t>Burgos</t>
-  </si>
-  <si>
-    <t>burgos</t>
-  </si>
-  <si>
-    <t>(182, 90, 16)</t>
-  </si>
-  <si>
-    <t>Asturias</t>
-  </si>
-  <si>
-    <t>asturias</t>
-  </si>
-  <si>
-    <t>(145, 114, 53)</t>
-  </si>
-  <si>
-    <t>Galicia</t>
-  </si>
-  <si>
-    <t>galicia</t>
-  </si>
-  <si>
-    <t>(184, 135, 3)</t>
-  </si>
-  <si>
-    <t>owner_id</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>RGB</t>
   </si>
   <si>
     <t>codename_duchy</t>
@@ -293,10 +311,25 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -309,7 +342,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -345,18 +378,90 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standaard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -751,7 +856,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E114"/>
+  <dimension ref="A1:G114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:E1"/>
@@ -762,164 +867,179 @@
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>84</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
         <v>45</v>
@@ -927,183 +1047,217 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="1"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="3"/>
     </row>
     <row r="86" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E86" s="1"/>
+      <c r="E86" s="3"/>
     </row>
     <row r="114" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E114" s="1"/>
+      <c r="E114" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>

--- a/src/Input_Files/duchy_names/iberia_duchies.xlsx
+++ b/src/Input_Files/duchy_names/iberia_duchies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python Scripts\imperator\ProvinceOrganizer\EP_ImperatorProvinceOrganizer\src\Input_Files\duchy_names\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Desktop\CK\CKU_bestanden\Mapping\iberia_export_maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0E4FDC-9668-4BF1-8F69-DBE8F0458331}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC71BF6B-3AFA-42D4-A122-3DC70FC4BCBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-135" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="duchies" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="96">
   <si>
     <t>RGB</t>
   </si>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t>government</t>
+  </si>
+  <si>
+    <t>feudal_government</t>
   </si>
 </sst>
 </file>
@@ -358,21 +361,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -384,14 +378,304 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
     <cellStyle name="Standaard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="42">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -536,7 +820,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -856,21 +1140,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G114"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.54296875" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -883,11 +1168,11 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -900,8 +1185,11 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -914,8 +1202,11 @@
       <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -928,8 +1219,11 @@
       <c r="D4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -939,8 +1233,11 @@
       <c r="C5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -950,8 +1247,11 @@
       <c r="C6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -964,8 +1264,11 @@
       <c r="D7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -978,8 +1281,11 @@
       <c r="D8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -989,8 +1295,11 @@
       <c r="C9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1000,8 +1309,11 @@
       <c r="C10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -1011,8 +1323,11 @@
       <c r="C11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -1022,8 +1337,11 @@
       <c r="C12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -1033,8 +1351,11 @@
       <c r="C13" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -1044,8 +1365,11 @@
       <c r="C14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -1055,8 +1379,11 @@
       <c r="C15" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -1069,8 +1396,11 @@
       <c r="D16" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -1083,8 +1413,11 @@
       <c r="D17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -1097,8 +1430,11 @@
       <c r="D18" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -1111,8 +1447,11 @@
       <c r="D19" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -1122,8 +1461,11 @@
       <c r="C20" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -1133,8 +1475,11 @@
       <c r="C21" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>69</v>
       </c>
@@ -1144,8 +1489,11 @@
       <c r="C22" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>72</v>
       </c>
@@ -1155,8 +1503,11 @@
       <c r="C23" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>75</v>
       </c>
@@ -1166,8 +1517,11 @@
       <c r="C24" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>78</v>
       </c>
@@ -1177,8 +1531,11 @@
       <c r="C25" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>81</v>
       </c>
@@ -1188,9 +1545,12 @@
       <c r="C26" t="s">
         <v>83</v>
       </c>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>84</v>
       </c>
@@ -1200,8 +1560,11 @@
       <c r="C27" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>87</v>
       </c>
@@ -1211,60 +1574,65 @@
       <c r="C28" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="E28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E86" s="3"/>
-    </row>
-    <row r="114" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E114" s="3"/>
+      <c r="E29" t="s">
+        <v>95</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A1048576">
-    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B1048576">
-    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
